--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2013_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2013_top_box_office.xlsx
@@ -448,156 +448,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iron Man 3</t>
+          <t>The Hunger Games: Catching Fire</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$409,013,994</t>
+          <t>$424,668,047</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Hunger Games: Catching Fire</t>
+          <t>Iron Man 3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$395,526,705</t>
+          <t>$409,013,994</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Despicable Me 2</t>
+          <t>Frozen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$367,793,270</t>
+          <t>$400,738,009</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Man of Steel</t>
+          <t>Despicable Me 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$291,045,518</t>
+          <t>$368,065,385</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Monsters University</t>
+          <t>Man of Steel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$268,492,764</t>
+          <t>$291,045,518</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$263,092,648</t>
+          <t>$274,092,705</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gravity</t>
+          <t>Monsters University</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$254,861,229</t>
+          <t>$268,492,764</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fast &amp; Furious 6</t>
+          <t>The Hobbit: The Desolation of Smaug</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$238,679,850</t>
+          <t>$258,366,855</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Oz the Great and Powerful</t>
+          <t>Fast &amp; Furious 6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$234,911,825</t>
+          <t>$238,679,850</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Star Trek Into Darkness</t>
+          <t>Oz the Great and Powerful</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$228,778,661</t>
+          <t>$234,911,825</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thor: The Dark World</t>
+          <t>Star Trek Into Darkness</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$202,651,732</t>
+          <t>$228,778,661</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>World War Z</t>
+          <t>Thor: The Dark World</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$202,359,711</t>
+          <t>$206,362,140</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Hobbit: The Desolation of Smaug</t>
+          <t>World War Z</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$201,542,078</t>
+          <t>$202,359,711</t>
         </is>
       </c>
     </row>
@@ -640,264 +640,264 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The Great Gatsby</t>
+          <t>American Hustle</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$144,840,419</t>
+          <t>$150,117,807</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Conjuring</t>
+          <t>The Great Gatsby</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$137,400,141</t>
+          <t>$144,840,419</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Identity Thief</t>
+          <t>The Conjuring</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$134,506,920</t>
+          <t>$137,400,141</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Grown Ups 2</t>
+          <t>Identity Thief</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$133,668,525</t>
+          <t>$134,506,920</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The Wolverine</t>
+          <t>Grown Ups 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$132,556,852</t>
+          <t>$133,668,525</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G.I. Joe: Retaliation</t>
+          <t>The Wolverine</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$122,523,060</t>
+          <t>$132,556,852</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Now You See Me</t>
+          <t>Anchorman 2: The Legend Continues</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$117,723,989</t>
+          <t>$125,168,368</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cloudy with a Chance of Meatballs 2</t>
+          <t>Lone Survivor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$116,857,454</t>
+          <t>$125,095,601</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The Butler</t>
+          <t>G.I. Joe: Retaliation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$116,180,128</t>
+          <t>$122,523,060</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The Hangover Part III</t>
+          <t>Cloudy with a Chance of Meatballs 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$112,200,072</t>
+          <t>$119,793,567</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epic</t>
+          <t>Now You See Me</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$107,518,682</t>
+          <t>$117,723,989</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Captain Phillips</t>
+          <t>The Wolf of Wall Street</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$104,638,057</t>
+          <t>$116,900,694</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Silver Linings Playbook</t>
+          <t>The Butler</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$103,633,972</t>
+          <t>$116,632,095</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pacific Rim</t>
+          <t>The Hangover Part III</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$101,802,906</t>
+          <t>$112,200,072</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>This Is the End</t>
+          <t>Epic</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$101,470,202</t>
+          <t>$107,518,682</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jackass Presents: Bad Grandpa</t>
+          <t>Captain Phillips</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$101,337,759</t>
+          <t>$107,100,855</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Olympus Has Fallen</t>
+          <t>Jackass Presents: Bad Grandpa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$98,925,640</t>
+          <t>$102,003,019</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>Pacific Rim</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$95,020,213</t>
+          <t>$101,802,906</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Zero Dark Thirty</t>
+          <t>This Is the End</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$94,277,984</t>
+          <t>$101,470,202</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Django Unchained</t>
+          <t>Olympus Has Fallen</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$94,199,823</t>
+          <t>$98,925,640</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Elysium</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$93,050,117</t>
+          <t>$95,020,213</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Anchorman 2: The Legend Continues</t>
+          <t>Elysium</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$90,579,768</t>
+          <t>$93,050,117</t>
         </is>
       </c>
     </row>
@@ -952,24 +952,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Turbo</t>
+          <t>Saving Mr. Banks</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$83,028,128</t>
+          <t>$83,301,580</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Les Misérables</t>
+          <t>Turbo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$75,842,530</t>
+          <t>$83,028,128</t>
         </is>
       </c>
     </row>
@@ -988,228 +988,228 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>The Hobbit: An Unexpected Journey</t>
+          <t>White House Down</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$74,456,964</t>
+          <t>$73,103,784</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>White House Down</t>
+          <t>Mama</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$73,103,784</t>
+          <t>$71,628,180</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mama</t>
+          <t>Safe Haven</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$71,628,180</t>
+          <t>$71,349,120</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Safe Haven</t>
+          <t>The Smurfs 2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$71,349,120</t>
+          <t>$71,017,784</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Smurfs 2</t>
+          <t>The Best Man Holiday</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$71,017,784</t>
+          <t>$70,525,195</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The Best Man Holiday</t>
+          <t>Percy Jackson: Sea of Monsters</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$70,313,550</t>
+          <t>$68,559,554</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Percy Jackson: Sea of Monsters</t>
+          <t>A Good Day to Die Hard</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$68,481,744</t>
+          <t>$67,349,198</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>American Hustle</t>
+          <t>Warm Bodies</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$67,518,524</t>
+          <t>$66,380,662</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A Good Day to Die Hard</t>
+          <t>Jack the Giant Slayer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$67,349,198</t>
+          <t>$65,187,603</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Warm Bodies</t>
+          <t>The Purge</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$66,380,662</t>
+          <t>$64,473,115</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jack the Giant Slayer</t>
+          <t>Last Vegas</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$65,187,603</t>
+          <t>$63,914,167</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>The Purge</t>
+          <t>Ender's Game</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$64,473,115</t>
+          <t>$61,737,191</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Last Vegas</t>
+          <t>Prisoners</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$62,791,595</t>
+          <t>$61,002,302</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ender's Game</t>
+          <t>After Earth</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$61,283,464</t>
+          <t>$60,522,097</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Prisoners</t>
+          <t>The Secret Life of Walter Mitty</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$61,002,302</t>
+          <t>$58,236,838</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>After Earth</t>
+          <t>Escape from Planet Earth</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$60,522,097</t>
+          <t>$57,012,977</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Escape from Planet Earth</t>
+          <t>12 Years a Slave</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$57,012,977</t>
+          <t>$56,671,993</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hansel &amp; Gretel: Witch Hunters</t>
+          <t>Free Birds</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$55,703,475</t>
+          <t>$55,750,480</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Free Birds</t>
+          <t>Hansel &amp; Gretel: Witch Hunters</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$54,542,536</t>
+          <t>$55,703,475</t>
         </is>
       </c>
     </row>
@@ -1240,48 +1240,48 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Temptation: Confessions of a Marriage Counselor</t>
+          <t>A Madea Christmas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$51,975,354</t>
+          <t>$52,543,354</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Call</t>
+          <t>Temptation: Confessions of a Marriage Counselor</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$51,872,378</t>
+          <t>$51,975,354</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pain &amp; Gain</t>
+          <t>The Call</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$49,875,291</t>
+          <t>$51,872,378</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lincoln</t>
+          <t>Pain &amp; Gain</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$48,018,876</t>
+          <t>$49,875,291</t>
         </is>
       </c>
     </row>
@@ -1312,1536 +1312,1536 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A Madea Christmas</t>
+          <t>The Internship</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$45,282,853</t>
+          <t>$44,672,764</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>The Internship</t>
+          <t>Instructions Not Included</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$44,672,764</t>
+          <t>$44,467,206</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Instructions Not Included</t>
+          <t>Snitch</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$44,467,206</t>
+          <t>$42,930,462</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Saving Mr. Banks</t>
+          <t>Riddick</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$44,087,469</t>
+          <t>$42,025,135</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Parental Guidance</t>
+          <t>A Haunted House</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$43,273,946</t>
+          <t>$40,041,683</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Snitch</t>
+          <t>47 Ronin</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$42,930,462</t>
+          <t>$38,362,475</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Riddick</t>
+          <t>August: Osage County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$42,025,135</t>
+          <t>$37,738,810</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>The Wolf of Wall Street</t>
+          <t>Philomena</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$41,448,935</t>
+          <t>$37,709,979</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A Haunted House</t>
+          <t>The Family</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$40,041,683</t>
+          <t>$36,918,811</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Life of Pi</t>
+          <t>Walking with Dinosaurs 3D</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$39,347,207</t>
+          <t>$36,076,121</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>12 Years a Slave</t>
+          <t>Carrie</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$37,951,371</t>
+          <t>$35,266,619</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>The Family</t>
+          <t>Texas Chainsaw</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$36,912,954</t>
+          <t>$34,341,945</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Carrie</t>
+          <t>R.I.P.D.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$35,266,619</t>
+          <t>$33,618,855</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Texas Chainsaw</t>
+          <t>Blue Jasmine</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$34,341,945</t>
+          <t>$33,405,481</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>R.I.P.D.</t>
+          <t>Kevin Hart: Let Me Explain</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$33,618,855</t>
+          <t>$32,244,051</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Blue Jasmine</t>
+          <t>Side Effects</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$33,021,046</t>
+          <t>$32,172,757</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jack Reacher</t>
+          <t>Scary Movie V</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$32,520,094</t>
+          <t>$32,015,787</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kevin Hart: Let Me Explain</t>
+          <t>The Mortal Instruments: City of Bones</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$32,244,051</t>
+          <t>$31,165,421</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Side Effects</t>
+          <t>Delivery Man</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$32,172,757</t>
+          <t>$30,664,106</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Scary Movie V</t>
+          <t>Grudge Match</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$32,015,787</t>
+          <t>$29,807,260</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>The Secret Life of Walter Mitty</t>
+          <t>One Direction: This Is Us</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$31,484,331</t>
+          <t>$28,873,374</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The Mortal Instruments: City of Bones</t>
+          <t>Kick-Ass 2</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$31,165,421</t>
+          <t>$28,795,985</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Delivery Man</t>
+          <t>Dallas Buyers Club</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$29,704,884</t>
+          <t>$27,298,285</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>One Direction: This Is Us</t>
+          <t>Rush</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$28,873,374</t>
+          <t>$26,947,624</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kick-Ass 2</t>
+          <t>The Host</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$28,795,985</t>
+          <t>$26,627,201</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>This Is 40</t>
+          <t>The World's End</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$28,592,545</t>
+          <t>$26,004,851</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Argo</t>
+          <t>21 &amp; Over</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$27,304,583</t>
+          <t>$25,682,380</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Rush</t>
+          <t>Her</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$26,947,624</t>
+          <t>$25,568,251</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>The Host</t>
+          <t>Escape Plan</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$26,627,201</t>
+          <t>$25,135,965</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>The World's End</t>
+          <t>Don Jon</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$26,004,851</t>
+          <t>$24,477,704</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>21 &amp; Over</t>
+          <t>The Incredible Burt Wonderstone</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$25,682,380</t>
+          <t>$22,537,881</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Escape Plan</t>
+          <t>The Big Wedding</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$24,977,645</t>
+          <t>$21,819,348</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Don Jon</t>
+          <t>Mud</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$24,469,383</t>
+          <t>$21,590,086</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Walking with Dinosaurs 3D</t>
+          <t>Baggage Claim</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$24,345,767</t>
+          <t>$21,569,509</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>47 Ronin</t>
+          <t>The Way Way Back</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$23,852,775</t>
+          <t>$21,506,546</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The Incredible Burt Wonderstone</t>
+          <t>The Book Thief</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$22,537,881</t>
+          <t>$21,488,481</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>The Big Wedding</t>
+          <t>The Place Beyond the Pines</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$21,819,348</t>
+          <t>$21,403,519</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mud</t>
+          <t>Homefront</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$21,590,086</t>
+          <t>$20,158,898</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Baggage Claim</t>
+          <t>Broken City</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$21,569,509</t>
+          <t>$19,701,164</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>The Way Way Back</t>
+          <t>Beautiful Creatures</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$21,506,546</t>
+          <t>$19,452,138</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Place Beyond the Pines</t>
+          <t>Runner Runner</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$21,403,519</t>
+          <t>$19,316,646</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Homefront</t>
+          <t>You're Next</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$20,122,876</t>
+          <t>$18,494,006</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Broken City</t>
+          <t>Quartet</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$19,701,164</t>
+          <t>$18,390,117</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Beautiful Creatures</t>
+          <t>Admission</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$19,452,138</t>
+          <t>$18,007,317</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Runner Runner</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$19,316,646</t>
+          <t>$17,654,912</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>You're Next</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$18,494,006</t>
+          <t>$17,616,641</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>The Impossible</t>
+          <t>Enough Said</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$18,491,079</t>
+          <t>$17,550,872</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Quartet</t>
+          <t>Dark Skies</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$18,390,117</t>
+          <t>$17,418,667</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>The Book Thief</t>
+          <t>The Counselor</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$18,214,732</t>
+          <t>$16,973,715</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Admission</t>
+          <t>Jobs</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$18,007,317</t>
+          <t>$16,131,410</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Fruitvale Station</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$17,616,641</t>
+          <t>$16,101,339</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Enough Said</t>
+          <t>About Time</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$17,464,587</t>
+          <t>$15,322,921</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dark Skies</t>
+          <t>The Last Exorcism Part II</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$17,418,667</t>
+          <t>$15,179,302</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Philomena</t>
+          <t>Spring Breakers</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$17,312,034</t>
+          <t>$14,124,284</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The Counselor</t>
+          <t>Inside Llewyn Davis</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$16,952,766</t>
+          <t>$13,235,319</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Grudge Match</t>
+          <t>The Last Stand</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$16,240,226</t>
+          <t>$12,050,299</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Jobs</t>
+          <t>Out of the Furnace</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$16,131,410</t>
+          <t>$11,330,849</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Fruitvale Station</t>
+          <t>Dead Man Down</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$16,101,339</t>
+          <t>$10,895,295</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dallas Buyers Club</t>
+          <t>Getaway</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$15,847,213</t>
+          <t>$10,501,938</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>About Time</t>
+          <t>Bullet to the Head</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$15,322,921</t>
+          <t>$9,489,829</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>The Last Exorcism Part II</t>
+          <t>Peeples</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$15,179,302</t>
+          <t>$9,177,065</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>The Guilt Trip</t>
+          <t>Battle of the Year</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$14,363,294</t>
+          <t>$8,888,355</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Spring Breakers</t>
+          <t>Movie 43</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$14,124,284</t>
+          <t>$8,840,453</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Monsters, Inc.2012 3D Release</t>
+          <t>Mandela: Long Walk to Freedom</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$14,029,026</t>
+          <t>$8,323,085</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Before Midnight</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$13,456,006</t>
+          <t>$8,114,627</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Wreck-It Ralph</t>
+          <t>Dhoom 3</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$13,432,870</t>
+          <t>$8,031,955</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rise of the Guardians</t>
+          <t>Jerusalem</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$12,075,099</t>
+          <t>$8,020,721</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>The Last Stand</t>
+          <t>Machete Kills</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$12,050,299</t>
+          <t>$8,008,161</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Out of the Furnace</t>
+          <t>Journey to the South Pacific</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$11,140,012</t>
+          <t>$7,653,913</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Dead Man Down</t>
+          <t>Paranoia</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$10,895,295</t>
+          <t>$7,388,654</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Getaway</t>
+          <t>Black Nativity</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$10,501,938</t>
+          <t>$7,018,189</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Bullet to the Head</t>
+          <t>The Spectacular Now</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$9,489,829</t>
+          <t>$6,854,611</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Peeples</t>
+          <t>The Grandmaster</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$9,177,065</t>
+          <t>$6,594,959</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Battle of the Year</t>
+          <t>All Is Lost</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$8,888,355</t>
+          <t>$6,263,670</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Movie 43</t>
+          <t>Justin Bieber's Believe</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$8,840,453</t>
+          <t>$6,206,566</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Before Midnight</t>
+          <t>The Bling Ring</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$8,114,627</t>
+          <t>$5,845,732</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Machete Kills</t>
+          <t>Pulling Strings</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$8,008,161</t>
+          <t>$5,842,961</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Paranoia</t>
+          <t>Closed Circuit</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$7,388,654</t>
+          <t>$5,750,401</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Promised Land</t>
+          <t>The Wizard of Oz2013 3D/IMAX Release</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$7,371,538</t>
+          <t>$5,633,202</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Dhoom 3</t>
+          <t>Chennai Express</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$7,194,748</t>
+          <t>$5,307,960</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Black Nativity</t>
+          <t>The Company You Keep</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$7,004,330</t>
+          <t>$5,133,027</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>The Spectacular Now</t>
+          <t>20 Feet from Stardom</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$6,854,611</t>
+          <t>$4,946,445</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>The Grandmaster</t>
+          <t>Much Ado About Nothing</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$6,594,959</t>
+          <t>$4,328,849</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Amour</t>
+          <t>Frances Ha</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$6,511,320</t>
+          <t>$4,069,826</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hubble</t>
+          <t>Yeh Jawaani Hai Deewani</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$6,177,621</t>
+          <t>$3,827,466</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>The To Do List</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$6,058,098</t>
+          <t>$3,491,669</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>All Is Lost</t>
+          <t>Metallica Through the Never</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$5,972,093</t>
+          <t>$3,419,967</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Twilight Saga: Breaking Dawn - Part 2</t>
+          <t>Emperor</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$5,901,844</t>
+          <t>$3,346,265</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>The Bling Ring</t>
+          <t>Stand Up Guys</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$5,845,733</t>
+          <t>$3,310,031</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Pulling Strings</t>
+          <t>The Fifth Estate</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$5,842,961</t>
+          <t>$3,255,008</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Closed Circuit</t>
+          <t>Top Gun2013 3D Release</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$5,750,401</t>
+          <t>$3,018,873</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Wizard of Oz2013 3D/IMAX Release</t>
+          <t>In a World...</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$5,633,202</t>
+          <t>$2,963,902</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Chennai Express</t>
+          <t>Home Run</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$5,307,960</t>
+          <t>$2,861,020</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Mandela: Long Walk to Freedom</t>
+          <t>The Great Beauty</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$5,236,120</t>
+          <t>$2,852,400</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Inside Llewyn Davis</t>
+          <t>Filly Brown</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$5,198,928</t>
+          <t>$2,850,357</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>The Company You Keep</t>
+          <t>RamLeela</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$5,133,027</t>
+          <t>$2,738,863</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Justin Bieber's Believe</t>
+          <t>Grace Unplugged</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$4,881,936</t>
+          <t>$2,507,201</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20 Feet from Stardom</t>
+          <t>The Sapphires</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$4,815,564</t>
+          <t>$2,450,867</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hyde Park on Hudson</t>
+          <t>The Gatekeepers</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$4,486,248</t>
+          <t>$2,415,727</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Cirque du Soleil: Worlds Away</t>
+          <t>I'm in Love with a Church Girl</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$4,422,021</t>
+          <t>$2,387,730</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Much Ado About Nothing</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$4,328,849</t>
+          <t>$2,343,664</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Frances Ha</t>
+          <t>Trance</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$4,069,826</t>
+          <t>$2,328,743</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Yeh Jawaani Hai Deewani</t>
+          <t>The East</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$3,827,466</t>
+          <t>$2,301,839</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>The To Do List</t>
+          <t>Renoir</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$3,491,669</t>
+          <t>$2,293,798</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Metallica Through the Never</t>
+          <t>The Christmas Candle</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$3,419,967</t>
+          <t>$2,258,620</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Emperor</t>
+          <t>Blue Is the Warmest Colour</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$3,346,275</t>
+          <t>$2,199,787</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Stand Up Guys</t>
+          <t>Oldboy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$3,310,031</t>
+          <t>$2,193,658</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>The Fifth Estate</t>
+          <t>Krrish 3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$3,255,008</t>
+          <t>$2,191,534</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Love Is All You Need</t>
+          <t>Austenland</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$3,180,709</t>
+          <t>$2,159,041</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Top Gun2013 3D Release</t>
+          <t>The Saratov Approach</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$3,018,873</t>
+          <t>$2,146,999</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>In a World...</t>
+          <t>The Oscar Nominated Short Films 2013: Live Action</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$2,963,902</t>
+          <t>$2,142,342</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>To the Arctic 3D</t>
+          <t>Blackfish</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$2,925,326</t>
+          <t>$2,073,582</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Home Run</t>
+          <t>The Iceman</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$2,861,020</t>
+          <t>$1,969,193</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Filly Brown</t>
+          <t>Fill the Void</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$2,850,357</t>
+          <t>$1,775,316</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hotel Transylvania</t>
+          <t>Girl Rising</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$2,775,193</t>
+          <t>$1,727,259</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RamLeela</t>
+          <t>The Attack</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$2,738,863</t>
+          <t>$1,720,325</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Space Station 3D</t>
+          <t>Stoker</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$2,616,192</t>
+          <t>$1,714,221</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Grace Unplugged</t>
+          <t>Unfinished Song</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$2,507,201</t>
+          <t>$1,702,668</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The Sapphires</t>
+          <t>Bhaag Milkha Bhaag</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$2,450,867</t>
+          <t>$1,636,731</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>The Gatekeepers</t>
+          <t>Love Is All You Need</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$2,415,727</t>
+          <t>$1,631,709</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>I'm in Love with a Church Girl</t>
+          <t>Stories We Tell</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$2,387,730</t>
+          <t>$1,600,145</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Race 2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$2,343,664</t>
+          <t>$1,579,940</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Trance</t>
+          <t>Bless Me, Ultima</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$2,328,743</t>
+          <t>$1,561,962</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>The East</t>
+          <t>Kon-Tiki</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$2,301,839</t>
+          <t>$1,517,410</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Renoir</t>
+          <t>Disconnect</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$2,293,798</t>
+          <t>$1,436,900</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>The Christmas Candle</t>
+          <t>Girl Most Likely</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$2,252,400</t>
+          <t>$1,378,591</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Krrish 3</t>
+          <t>I'm So Excited!</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$2,191,534</t>
+          <t>$1,368,119</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Oldboy</t>
+          <t>Wadjda</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$2,190,524</t>
+          <t>$1,347,747</t>
         </is>
       </c>
     </row>
